--- a/biology/Zoologie/Bombyx/Bombyx.xlsx
+++ b/biology/Zoologie/Bombyx/Bombyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombyx est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de lépidoptères (papillons) nocturnes. 
 Originellement, ce nom est le nom scientifique du genre Bombyx (dans la famille des Bombycidae), qui regroupe plusieurs espèces dont la plus connue est Bombyx mori (en français le Bombyx du mûrier), dont la chenille est appelée « ver à soie » et exploitée pour la sériciculture. 
@@ -513,7 +525,9 @@
           <t>Liste d'espèces appelés « Bombyx » en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Note : plusieurs noms français peuvent correspondre à une même espèce.
 Bombyx de l'acacia — Streblote acaciae
